--- a/Unit Test/TestPlan-Template-EN.xlsx
+++ b/Unit Test/TestPlan-Template-EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive - Hanoi University of Science and Technology\Desktop\Nam4.1\TKXDPM\Unit Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buudinhha/Vscode/aims/Unit Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2904A33D-B1E3-4F49-B712-BD8A377C918B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D23E95-560D-1943-A1A8-8FEFADC41207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" firstSheet="1" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="154">
   <si>
     <t>1. Introduction</t>
   </si>
@@ -316,9 +316,6 @@
     <t>addCartMedia</t>
   </si>
   <si>
-    <t>Nguyen Thi Thu Giang</t>
-  </si>
-  <si>
     <t>Nguyen Ngoc Anh</t>
   </si>
   <si>
@@ -536,6 +533,12 @@
   </si>
   <si>
     <t>&lt;TC006&gt;</t>
+  </si>
+  <si>
+    <t>Ha Buu Dinh</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thu Trang</t>
   </si>
 </sst>
 </file>
@@ -969,6 +972,18 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -996,6 +1011,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,56 +1044,38 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1075,102 +1096,84 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{30B915D8-0FED-43D3-AEFD-B412C8FDC748}"/>
     <cellStyle name="Note 2" xfId="1" xr:uid="{4EEECABB-1664-4A92-99FC-4ED2379D892F}"/>
-    <cellStyle name="Siêu kết nối" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1730,7 +1733,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2029,11 +2032,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A41" zoomScale="102" zoomScaleNormal="99" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="102" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="102" zoomScaleNormal="99" zoomScaleSheetLayoutView="88" zoomScalePageLayoutView="102" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2051,179 +2054,179 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2243,14 +2246,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="4:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E4" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>1</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>2</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>3</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>4</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>5</v>
       </c>
@@ -2310,231 +2313,231 @@
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="88" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="14"/>
+    <col min="1" max="16384" width="8.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2544,74 +2547,74 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-    </row>
-    <row r="32" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2621,7 +2624,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
@@ -2633,157 +2636,157 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2803,180 +2806,180 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="88" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A44" zoomScaleNormal="100" zoomScaleSheetLayoutView="88" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="5"/>
+    <col min="1" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2986,7 +2989,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
@@ -2998,139 +3001,139 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>16</v>
       </c>
@@ -3142,49 +3145,49 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+    <row r="36" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3194,7 +3197,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3204,7 +3207,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3214,7 +3217,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3224,7 +3227,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3234,7 +3237,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3244,7 +3247,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3254,7 +3257,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3264,7 +3267,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3274,7 +3277,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3284,7 +3287,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3294,7 +3297,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3325,224 +3328,224 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3557,47 +3560,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917CA0A-EA61-4F09-84F9-F925FF2C64CE}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="4" max="9" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="4" max="9" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="F2" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="F2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="32" t="s">
         <v>24</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>29</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>35</v>
       </c>
@@ -3672,12 +3675,12 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" ref="C7:C10" si="1">COUNTIF(D7:R7,"=x")</f>
@@ -3692,12 +3695,12 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="17">
         <f t="shared" si="1"/>
@@ -3712,12 +3715,12 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" si="1"/>
@@ -3732,12 +3735,12 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>69</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="17">
         <f t="shared" si="1"/>
@@ -3752,12 +3755,12 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="17">
         <f>COUNTIF(D11:R11,"=x")</f>
@@ -3772,7 +3775,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -3783,66 +3786,66 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="46" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="60"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="G17" s="57"/>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3864,40 +3867,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF123E7-2EB5-48C5-B5DD-E8CB50F3BF35}">
   <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A144" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A185" zoomScale="125" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="2.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="74"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="24" t="s">
         <v>78</v>
       </c>
@@ -3906,22 +3909,22 @@
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="78"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="85"/>
       <c r="H4" s="25" t="s">
         <v>42</v>
       </c>
@@ -3930,7 +3933,7 @@
       </c>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -3942,11 +3945,11 @@
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="23" t="s">
         <v>59</v>
       </c>
@@ -3958,7 +3961,7 @@
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -3970,22 +3973,22 @@
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="24" t="s">
+    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="87"/>
+      <c r="F8" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="25" t="s">
         <v>47</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="20"/>
@@ -4002,41 +4005,41 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>1</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>2</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -4048,34 +4051,34 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>1</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="58"/>
+      <c r="B15" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="63"/>
       <c r="D15" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="79"/>
       <c r="F15" s="79"/>
@@ -4084,55 +4087,55 @@
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>2</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="80" t="s">
+      <c r="B16" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>3</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="66"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="23" t="s">
         <v>52</v>
       </c>
@@ -4144,217 +4147,217 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C20" s="31"/>
     </row>
-    <row r="21" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+    <row r="21" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="69" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="72" t="s">
+      <c r="E21" s="76"/>
+      <c r="F21" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="57" t="s">
+      <c r="G21" s="78"/>
+      <c r="H21" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-    </row>
-    <row r="23" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>1</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="69"/>
+      <c r="D23" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="58" t="s">
+      <c r="E23" s="63"/>
+      <c r="F23" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>2</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="58" t="s">
+      <c r="E24" s="63"/>
+      <c r="F24" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58" t="s">
+      <c r="G24" s="63"/>
+      <c r="H24" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>3</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58" t="s">
+      <c r="B25" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="69"/>
+      <c r="D25" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58" t="s">
+      <c r="E25" s="63"/>
+      <c r="F25" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>4</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58" t="s">
+      <c r="B26" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <v>5</v>
       </c>
-      <c r="B27" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58" t="s">
+      <c r="B27" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="74"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
     </row>
-    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="73" t="s">
+    <row r="30" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="74"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="74"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
+    <row r="31" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="74"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="78"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="85"/>
       <c r="H31" s="25" t="s">
         <v>42</v>
       </c>
@@ -4363,7 +4366,7 @@
       </c>
       <c r="J31" s="26"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -4375,11 +4378,11 @@
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
+    <row r="33" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="61"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="23" t="s">
         <v>59</v>
       </c>
@@ -4391,7 +4394,7 @@
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -4403,22 +4406,22 @@
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
     </row>
-    <row r="35" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+    <row r="35" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A35" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="24" t="s">
+      <c r="B35" s="87"/>
+      <c r="C35" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="87"/>
+      <c r="F35" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="64"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="25" t="s">
         <v>47</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="20"/>
@@ -4435,41 +4438,41 @@
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
         <v>1</v>
       </c>
-      <c r="B38" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="29">
         <v>2</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -4481,34 +4484,34 @@
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77" t="s">
+      <c r="C41" s="84"/>
+      <c r="D41" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <v>1</v>
       </c>
-      <c r="B42" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="58"/>
+      <c r="B42" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="63"/>
       <c r="D42" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="79"/>
       <c r="F42" s="79"/>
@@ -4517,59 +4520,59 @@
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
     </row>
-    <row r="43" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="29">
         <v>2</v>
       </c>
-      <c r="B43" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="84"/>
-      <c r="D43" s="90" t="s">
+      <c r="B43" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="91"/>
-      <c r="F43" s="92"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="81"/>
+      <c r="F43" s="82"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="29">
         <v>3</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="67"/>
+      <c r="D44" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="84"/>
-      <c r="D44" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="93"/>
-      <c r="F44" s="84"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="67"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="66" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="66"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="23" t="s">
         <v>52</v>
       </c>
@@ -4581,249 +4584,249 @@
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C47" s="31"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="57" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="69" t="s">
+      <c r="C48" s="73"/>
+      <c r="D48" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="70"/>
-      <c r="F48" s="72" t="s">
+      <c r="E48" s="76"/>
+      <c r="F48" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="72"/>
-      <c r="H48" s="57" t="s">
+      <c r="G48" s="78"/>
+      <c r="H48" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="73"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="29">
         <v>1</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="69"/>
+      <c r="D50" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="58" t="s">
+      <c r="E50" s="63"/>
+      <c r="F50" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58" t="s">
+      <c r="G50" s="63"/>
+      <c r="H50" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="29">
         <v>2</v>
       </c>
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="100"/>
+      <c r="D51" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="82"/>
-      <c r="D51" s="83" t="s">
+      <c r="E51" s="67"/>
+      <c r="F51" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="84"/>
-      <c r="F51" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51" s="84"/>
-      <c r="H51" s="83" t="s">
+      <c r="G51" s="67"/>
+      <c r="H51" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="93"/>
-      <c r="J51" s="84"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I51" s="68"/>
+      <c r="J51" s="67"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="29">
         <v>3</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58" t="s">
+      <c r="B52" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="69"/>
+      <c r="D52" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58" t="s">
+      <c r="E52" s="63"/>
+      <c r="F52" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="29">
         <v>4</v>
       </c>
-      <c r="B53" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="76"/>
-      <c r="D53" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58" t="s">
+      <c r="B53" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="29">
         <v>5</v>
       </c>
-      <c r="B54" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58" t="s">
+      <c r="B54" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="65"/>
+      <c r="D54" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="29">
         <v>6</v>
       </c>
-      <c r="B55" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58" t="s">
+      <c r="B55" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="65"/>
+      <c r="D55" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="29">
         <v>7</v>
       </c>
-      <c r="B56" s="88" t="s">
+      <c r="B56" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="65"/>
+      <c r="D56" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="89"/>
-      <c r="D56" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58" t="s">
+      <c r="E56" s="63"/>
+      <c r="F56" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="23"/>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E59" s="74"/>
+      <c r="E59" s="92"/>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
       <c r="H59" s="24"/>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
     </row>
-    <row r="60" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="73" t="s">
+    <row r="60" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="74"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="73" t="s">
+      <c r="D60" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E60" s="74"/>
+      <c r="E60" s="92"/>
       <c r="F60" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="24"/>
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="73" t="s">
+    <row r="61" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="74"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="74"/>
-      <c r="F61" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="78"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="85"/>
       <c r="H61" s="25" t="s">
         <v>42</v>
       </c>
@@ -4832,7 +4835,7 @@
       </c>
       <c r="J61" s="26"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -4844,11 +4847,11 @@
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="60" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="61"/>
+      <c r="B63" s="87"/>
       <c r="C63" s="23" t="s">
         <v>59</v>
       </c>
@@ -4860,7 +4863,7 @@
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
@@ -4872,22 +4875,22 @@
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
     </row>
-    <row r="65" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A65" s="62" t="s">
+    <row r="65" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A65" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="87"/>
+      <c r="C65" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="87"/>
+      <c r="F65" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="61"/>
-      <c r="F65" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" s="64"/>
+      <c r="G65" s="90"/>
       <c r="H65" s="25" t="s">
         <v>47</v>
       </c>
@@ -4895,7 +4898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="20"/>
@@ -4904,41 +4907,41 @@
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B67" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="29">
         <v>1</v>
       </c>
-      <c r="B68" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B68" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="29">
         <v>2</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -4950,34 +4953,34 @@
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77" t="s">
+      <c r="C71" s="84"/>
+      <c r="D71" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
       <c r="G71" s="24"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="29">
         <v>1</v>
       </c>
-      <c r="B72" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="58"/>
+      <c r="B72" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="63"/>
       <c r="D72" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E72" s="79"/>
       <c r="F72" s="79"/>
@@ -4986,59 +4989,59 @@
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="29">
         <v>2</v>
       </c>
-      <c r="B73" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="84"/>
-      <c r="D73" s="90" t="s">
+      <c r="B73" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E73" s="91"/>
-      <c r="F73" s="92"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="81"/>
+      <c r="F73" s="82"/>
       <c r="G73" s="24"/>
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
       <c r="J73" s="24"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="29">
         <v>3</v>
       </c>
-      <c r="B74" s="83" t="s">
+      <c r="B74" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="67"/>
+      <c r="D74" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="84"/>
-      <c r="D74" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" s="93"/>
-      <c r="F74" s="84"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="67"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
       <c r="I74" s="24"/>
       <c r="J74" s="24"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="31"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
       <c r="J75" s="23"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="66" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="66"/>
+      <c r="B76" s="72"/>
       <c r="C76" s="23" t="s">
         <v>52</v>
       </c>
@@ -5050,205 +5053,205 @@
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C77" s="31"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="57" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="67"/>
-      <c r="D78" s="69" t="s">
+      <c r="C78" s="73"/>
+      <c r="D78" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E78" s="70"/>
-      <c r="F78" s="72" t="s">
+      <c r="E78" s="76"/>
+      <c r="F78" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="G78" s="72"/>
-      <c r="H78" s="57" t="s">
+      <c r="G78" s="78"/>
+      <c r="H78" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="I78" s="57"/>
-      <c r="J78" s="57"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="67"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="71"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="57"/>
-      <c r="J79" s="57"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="73"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="78"/>
+      <c r="G79" s="78"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="70"/>
+      <c r="J79" s="70"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="29">
         <v>1</v>
       </c>
-      <c r="B80" s="58" t="s">
+      <c r="B80" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="69"/>
+      <c r="D80" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="76"/>
-      <c r="D80" s="58" t="s">
+      <c r="E80" s="63"/>
+      <c r="F80" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58" t="s">
+      <c r="G80" s="63"/>
+      <c r="H80" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="29">
         <v>2</v>
       </c>
-      <c r="B81" s="81" t="s">
+      <c r="B81" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="100"/>
+      <c r="D81" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="83" t="s">
+      <c r="E81" s="67"/>
+      <c r="F81" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="84"/>
-      <c r="F81" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G81" s="84"/>
-      <c r="H81" s="83" t="s">
+      <c r="G81" s="67"/>
+      <c r="H81" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I81" s="93"/>
-      <c r="J81" s="84"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I81" s="68"/>
+      <c r="J81" s="67"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="29">
         <v>3</v>
       </c>
-      <c r="B82" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58" t="s">
+      <c r="B82" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="69"/>
+      <c r="D82" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58" t="s">
+      <c r="E82" s="63"/>
+      <c r="F82" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="29">
         <v>4</v>
       </c>
-      <c r="B83" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="76"/>
-      <c r="D83" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58" t="s">
+      <c r="B83" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="69"/>
+      <c r="D83" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="29">
         <v>5</v>
       </c>
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="65"/>
+      <c r="D84" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C84" s="89"/>
-      <c r="D84" s="58" t="s">
+      <c r="E84" s="63"/>
+      <c r="F84" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="B87" s="34"/>
       <c r="C87" s="23"/>
-      <c r="D87" s="73" t="s">
+      <c r="D87" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="74"/>
+      <c r="E87" s="92"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
       <c r="J87" s="24"/>
     </row>
-    <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="73" t="s">
+    <row r="88" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="74"/>
+      <c r="B88" s="92"/>
       <c r="C88" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D88" s="73" t="s">
+      <c r="D88" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="74"/>
+      <c r="E88" s="92"/>
       <c r="F88" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
       <c r="J88" s="24"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="73" t="s">
+    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="74"/>
+      <c r="B89" s="92"/>
       <c r="C89" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D89" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="74"/>
-      <c r="F89" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" s="78"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="G89" s="85"/>
       <c r="H89" s="25" t="s">
         <v>42</v>
       </c>
@@ -5257,7 +5260,7 @@
       </c>
       <c r="J89" s="26"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
@@ -5269,11 +5272,11 @@
       <c r="I90" s="24"/>
       <c r="J90" s="24"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="60" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B91" s="61"/>
+      <c r="B91" s="87"/>
       <c r="C91" s="23" t="s">
         <v>59</v>
       </c>
@@ -5285,7 +5288,7 @@
       <c r="I91" s="24"/>
       <c r="J91" s="24"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -5297,22 +5300,22 @@
       <c r="I92" s="24"/>
       <c r="J92" s="24"/>
     </row>
-    <row r="93" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A93" s="62" t="s">
+    <row r="93" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A93" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="61"/>
+      <c r="B93" s="87"/>
       <c r="C93" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="87"/>
+      <c r="F93" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="D93" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E93" s="61"/>
-      <c r="F93" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="64"/>
+      <c r="G93" s="90"/>
       <c r="H93" s="25" t="s">
         <v>47</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="20"/>
@@ -5329,41 +5332,41 @@
       <c r="I94" s="24"/>
       <c r="J94" s="24"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B95" s="65" t="s">
+      <c r="B95" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C95" s="83"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="29">
         <v>1</v>
       </c>
-      <c r="B96" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C96" s="58"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="63"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="29">
         <v>2</v>
       </c>
-      <c r="B97" s="58"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="63"/>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="24"/>
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
@@ -5375,34 +5378,34 @@
       <c r="I98" s="24"/>
       <c r="J98" s="24"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="77" t="s">
+      <c r="B99" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="77"/>
-      <c r="D99" s="77" t="s">
+      <c r="C99" s="84"/>
+      <c r="D99" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="84"/>
       <c r="G99" s="24"/>
       <c r="H99" s="24"/>
       <c r="I99" s="24"/>
       <c r="J99" s="24"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
         <v>1</v>
       </c>
-      <c r="B100" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" s="58"/>
+      <c r="B100" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="63"/>
       <c r="D100" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E100" s="79"/>
       <c r="F100" s="79"/>
@@ -5411,59 +5414,59 @@
       <c r="I100" s="24"/>
       <c r="J100" s="24"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
         <v>2</v>
       </c>
-      <c r="B101" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C101" s="84"/>
-      <c r="D101" s="90" t="s">
+      <c r="B101" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E101" s="91"/>
-      <c r="F101" s="92"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="81"/>
+      <c r="F101" s="82"/>
       <c r="G101" s="24"/>
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
       <c r="J101" s="24"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
         <v>3</v>
       </c>
-      <c r="B102" s="83" t="s">
+      <c r="B102" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="67"/>
+      <c r="D102" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="84"/>
-      <c r="D102" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" s="93"/>
-      <c r="F102" s="84"/>
+      <c r="E102" s="68"/>
+      <c r="F102" s="67"/>
       <c r="G102" s="24"/>
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
       <c r="J102" s="24"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="31"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
       <c r="G103" s="23"/>
       <c r="H103" s="23"/>
       <c r="I103" s="23"/>
       <c r="J103" s="23"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="66" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B104" s="66"/>
+      <c r="B104" s="72"/>
       <c r="C104" s="23" t="s">
         <v>52</v>
       </c>
@@ -5475,205 +5478,205 @@
       <c r="I104" s="24"/>
       <c r="J104" s="24"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C105" s="31"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="57" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="57" t="s">
+      <c r="B106" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C106" s="67"/>
-      <c r="D106" s="69" t="s">
+      <c r="C106" s="73"/>
+      <c r="D106" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E106" s="70"/>
-      <c r="F106" s="72" t="s">
+      <c r="E106" s="76"/>
+      <c r="F106" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="G106" s="72"/>
-      <c r="H106" s="57" t="s">
+      <c r="G106" s="78"/>
+      <c r="H106" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="I106" s="57"/>
-      <c r="J106" s="57"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="67"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="71"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="72"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I106" s="70"/>
+      <c r="J106" s="70"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="73"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="70"/>
+      <c r="J107" s="70"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="29">
         <v>1</v>
       </c>
-      <c r="B108" s="58" t="s">
+      <c r="B108" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="69"/>
+      <c r="D108" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C108" s="76"/>
-      <c r="D108" s="58" t="s">
+      <c r="E108" s="63"/>
+      <c r="F108" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58" t="s">
+      <c r="G108" s="63"/>
+      <c r="H108" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I108" s="63"/>
+      <c r="J108" s="63"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
         <v>2</v>
       </c>
-      <c r="B109" s="81" t="s">
+      <c r="B109" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" s="100"/>
+      <c r="D109" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C109" s="82"/>
-      <c r="D109" s="83" t="s">
+      <c r="E109" s="67"/>
+      <c r="F109" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E109" s="84"/>
-      <c r="F109" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G109" s="84"/>
-      <c r="H109" s="83" t="s">
+      <c r="G109" s="67"/>
+      <c r="H109" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I109" s="93"/>
-      <c r="J109" s="84"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I109" s="68"/>
+      <c r="J109" s="67"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="29">
         <v>3</v>
       </c>
-      <c r="B110" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C110" s="76"/>
-      <c r="D110" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E110" s="58"/>
-      <c r="F110" s="58" t="s">
+      <c r="B110" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110" s="69"/>
+      <c r="D110" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="G110" s="58"/>
-      <c r="H110" s="58" t="s">
+      <c r="E110" s="63"/>
+      <c r="F110" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I110" s="58"/>
-      <c r="J110" s="58"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I110" s="63"/>
+      <c r="J110" s="63"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="29">
         <v>4</v>
       </c>
-      <c r="B111" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" s="76"/>
-      <c r="D111" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G111" s="58"/>
-      <c r="H111" s="58" t="s">
+      <c r="B111" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111" s="69"/>
+      <c r="D111" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E111" s="63"/>
+      <c r="F111" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G111" s="63"/>
+      <c r="H111" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I111" s="63"/>
+      <c r="J111" s="63"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="29">
         <v>5</v>
       </c>
-      <c r="B112" s="88" t="s">
+      <c r="B112" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="65"/>
+      <c r="D112" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="89"/>
-      <c r="D112" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="E112" s="58"/>
-      <c r="F112" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G112" s="58"/>
-      <c r="H112" s="58" t="s">
+      <c r="E112" s="63"/>
+      <c r="F112" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I112" s="58"/>
-      <c r="J112" s="58"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I112" s="63"/>
+      <c r="J112" s="63"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115" s="34"/>
       <c r="C115" s="23"/>
-      <c r="D115" s="73" t="s">
+      <c r="D115" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E115" s="74"/>
+      <c r="E115" s="92"/>
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
       <c r="I115" s="24"/>
       <c r="J115" s="24"/>
     </row>
-    <row r="116" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="73" t="s">
+    <row r="116" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B116" s="74"/>
+      <c r="B116" s="92"/>
       <c r="C116" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D116" s="73" t="s">
+      <c r="D116" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E116" s="74"/>
+      <c r="E116" s="92"/>
       <c r="F116" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G116" s="24"/>
       <c r="H116" s="24"/>
       <c r="I116" s="24"/>
       <c r="J116" s="24"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="73" t="s">
+    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B117" s="74"/>
-      <c r="C117" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D117" s="73" t="s">
+      <c r="B117" s="92"/>
+      <c r="C117" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D117" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E117" s="74"/>
-      <c r="F117" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G117" s="78"/>
+      <c r="E117" s="92"/>
+      <c r="F117" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="G117" s="85"/>
       <c r="H117" s="25" t="s">
         <v>42</v>
       </c>
@@ -5682,7 +5685,7 @@
       </c>
       <c r="J117" s="26"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="24"/>
       <c r="B118" s="24"/>
       <c r="C118" s="24"/>
@@ -5694,11 +5697,11 @@
       <c r="I118" s="24"/>
       <c r="J118" s="24"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="60" t="s">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="61"/>
+      <c r="B119" s="87"/>
       <c r="C119" s="23" t="s">
         <v>59</v>
       </c>
@@ -5710,7 +5713,7 @@
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="27"/>
       <c r="C120" s="27"/>
@@ -5722,22 +5725,22 @@
       <c r="I120" s="24"/>
       <c r="J120" s="24"/>
     </row>
-    <row r="121" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A121" s="62" t="s">
+    <row r="121" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A121" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="61"/>
-      <c r="C121" s="24" t="s">
+      <c r="B121" s="87"/>
+      <c r="C121" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D121" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" s="87"/>
+      <c r="F121" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="D121" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E121" s="61"/>
-      <c r="F121" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G121" s="64"/>
+      <c r="G121" s="90"/>
       <c r="H121" s="25" t="s">
         <v>47</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="27"/>
       <c r="C122" s="20"/>
@@ -5754,41 +5757,41 @@
       <c r="I122" s="24"/>
       <c r="J122" s="24"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B123" s="65" t="s">
+      <c r="B123" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="65"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="29">
         <v>1</v>
       </c>
-      <c r="B124" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C124" s="58"/>
-      <c r="D124" s="58"/>
-      <c r="E124" s="58"/>
-      <c r="F124" s="58"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B124" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="63"/>
+      <c r="D124" s="63"/>
+      <c r="E124" s="63"/>
+      <c r="F124" s="63"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="29">
         <v>2</v>
       </c>
-      <c r="B125" s="58"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="58"/>
-      <c r="E125" s="58"/>
-      <c r="F125" s="58"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B125" s="63"/>
+      <c r="C125" s="63"/>
+      <c r="D125" s="63"/>
+      <c r="E125" s="63"/>
+      <c r="F125" s="63"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="24"/>
       <c r="B126" s="24"/>
       <c r="C126" s="24"/>
@@ -5800,34 +5803,34 @@
       <c r="I126" s="24"/>
       <c r="J126" s="24"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B127" s="77" t="s">
+      <c r="B127" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C127" s="77"/>
-      <c r="D127" s="77" t="s">
+      <c r="C127" s="84"/>
+      <c r="D127" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="E127" s="77"/>
-      <c r="F127" s="77"/>
+      <c r="E127" s="84"/>
+      <c r="F127" s="84"/>
       <c r="G127" s="24"/>
       <c r="H127" s="24"/>
       <c r="I127" s="24"/>
       <c r="J127" s="24"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="29">
         <v>1</v>
       </c>
-      <c r="B128" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C128" s="58"/>
+      <c r="B128" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C128" s="63"/>
       <c r="D128" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E128" s="79"/>
       <c r="F128" s="79"/>
@@ -5836,59 +5839,59 @@
       <c r="I128" s="24"/>
       <c r="J128" s="24"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="29">
         <v>2</v>
       </c>
-      <c r="B129" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C129" s="84"/>
-      <c r="D129" s="90" t="s">
+      <c r="B129" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E129" s="91"/>
-      <c r="F129" s="92"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E129" s="81"/>
+      <c r="F129" s="82"/>
       <c r="G129" s="24"/>
       <c r="H129" s="24"/>
       <c r="I129" s="24"/>
       <c r="J129" s="24"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="29">
         <v>3</v>
       </c>
-      <c r="B130" s="83" t="s">
+      <c r="B130" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C130" s="67"/>
+      <c r="D130" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C130" s="84"/>
-      <c r="D130" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E130" s="93"/>
-      <c r="F130" s="84"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="67"/>
       <c r="G130" s="24"/>
       <c r="H130" s="24"/>
       <c r="I130" s="24"/>
       <c r="J130" s="24"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="31"/>
-      <c r="B131" s="59"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="59"/>
-      <c r="E131" s="59"/>
-      <c r="F131" s="59"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
       <c r="G131" s="23"/>
       <c r="H131" s="23"/>
       <c r="I131" s="23"/>
       <c r="J131" s="23"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="66" t="s">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B132" s="66"/>
+      <c r="B132" s="72"/>
       <c r="C132" s="23" t="s">
         <v>52</v>
       </c>
@@ -5900,293 +5903,293 @@
       <c r="I132" s="24"/>
       <c r="J132" s="24"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C133" s="31"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="57" t="s">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B134" s="57" t="s">
+      <c r="B134" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C134" s="67"/>
-      <c r="D134" s="69" t="s">
+      <c r="C134" s="73"/>
+      <c r="D134" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E134" s="70"/>
-      <c r="F134" s="72" t="s">
+      <c r="E134" s="76"/>
+      <c r="F134" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="G134" s="72"/>
-      <c r="H134" s="57" t="s">
+      <c r="G134" s="78"/>
+      <c r="H134" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="I134" s="57"/>
-      <c r="J134" s="57"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="67"/>
-      <c r="B135" s="68"/>
-      <c r="C135" s="68"/>
-      <c r="D135" s="71"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="72"/>
-      <c r="G135" s="72"/>
-      <c r="H135" s="57"/>
-      <c r="I135" s="57"/>
-      <c r="J135" s="57"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I134" s="70"/>
+      <c r="J134" s="70"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="73"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="78"/>
+      <c r="H135" s="70"/>
+      <c r="I135" s="70"/>
+      <c r="J135" s="70"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="29">
         <v>1</v>
       </c>
-      <c r="B136" s="58" t="s">
+      <c r="B136" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" s="69"/>
+      <c r="D136" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C136" s="76"/>
-      <c r="D136" s="58" t="s">
+      <c r="E136" s="63"/>
+      <c r="F136" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E136" s="58"/>
-      <c r="F136" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G136" s="58"/>
-      <c r="H136" s="58" t="s">
+      <c r="G136" s="63"/>
+      <c r="H136" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I136" s="58"/>
-      <c r="J136" s="58"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I136" s="63"/>
+      <c r="J136" s="63"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="29">
         <v>2</v>
       </c>
-      <c r="B137" s="81" t="s">
+      <c r="B137" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" s="100"/>
+      <c r="D137" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C137" s="82"/>
-      <c r="D137" s="83" t="s">
+      <c r="E137" s="67"/>
+      <c r="F137" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E137" s="84"/>
-      <c r="F137" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G137" s="84"/>
-      <c r="H137" s="83" t="s">
+      <c r="G137" s="67"/>
+      <c r="H137" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I137" s="93"/>
-      <c r="J137" s="84"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I137" s="68"/>
+      <c r="J137" s="67"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="29">
         <v>3</v>
       </c>
-      <c r="B138" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C138" s="76"/>
-      <c r="D138" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E138" s="58"/>
-      <c r="F138" s="58" t="s">
+      <c r="B138" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" s="69"/>
+      <c r="D138" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="G138" s="58"/>
-      <c r="H138" s="58" t="s">
+      <c r="E138" s="63"/>
+      <c r="F138" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G138" s="63"/>
+      <c r="H138" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I138" s="58"/>
-      <c r="J138" s="58"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I138" s="63"/>
+      <c r="J138" s="63"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="29">
         <v>4</v>
       </c>
-      <c r="B139" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C139" s="76"/>
-      <c r="D139" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E139" s="58"/>
-      <c r="F139" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G139" s="58"/>
-      <c r="H139" s="58" t="s">
+      <c r="B139" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139" s="69"/>
+      <c r="D139" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E139" s="63"/>
+      <c r="F139" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G139" s="63"/>
+      <c r="H139" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I139" s="58"/>
-      <c r="J139" s="58"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I139" s="63"/>
+      <c r="J139" s="63"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="29">
         <v>5</v>
       </c>
-      <c r="B140" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="C140" s="89"/>
-      <c r="D140" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="E140" s="58"/>
-      <c r="F140" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G140" s="58"/>
-      <c r="H140" s="58" t="s">
+      <c r="B140" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" s="65"/>
+      <c r="D140" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E140" s="63"/>
+      <c r="F140" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G140" s="63"/>
+      <c r="H140" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I140" s="58"/>
-      <c r="J140" s="58"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I140" s="63"/>
+      <c r="J140" s="63"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="29">
         <v>6</v>
       </c>
-      <c r="B141" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C141" s="76"/>
-      <c r="D141" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E141" s="58"/>
-      <c r="F141" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G141" s="58"/>
-      <c r="H141" s="58" t="s">
+      <c r="B141" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C141" s="69"/>
+      <c r="D141" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E141" s="63"/>
+      <c r="F141" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G141" s="63"/>
+      <c r="H141" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I141" s="63"/>
+      <c r="J141" s="63"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="29">
         <v>7</v>
       </c>
-      <c r="B142" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="C142" s="89"/>
-      <c r="D142" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="E142" s="58"/>
-      <c r="F142" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G142" s="58"/>
-      <c r="H142" s="58" t="s">
+      <c r="B142" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C142" s="65"/>
+      <c r="D142" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E142" s="63"/>
+      <c r="F142" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G142" s="63"/>
+      <c r="H142" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I142" s="58"/>
-      <c r="J142" s="58"/>
-    </row>
-    <row r="143" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I142" s="63"/>
+      <c r="J142" s="63"/>
+    </row>
+    <row r="143" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="29">
         <v>8</v>
       </c>
-      <c r="B143" s="96" t="s">
+      <c r="B143" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C143" s="94"/>
+      <c r="D143" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="C143" s="97"/>
-      <c r="D143" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="E143" s="97"/>
-      <c r="F143" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="G143" s="97"/>
-      <c r="H143" s="96" t="s">
+      <c r="E143" s="94"/>
+      <c r="F143" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="G143" s="94"/>
+      <c r="H143" s="93" t="s">
         <v>48</v>
       </c>
       <c r="I143" s="95"/>
-      <c r="J143" s="97"/>
-    </row>
-    <row r="144" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J143" s="94"/>
+    </row>
+    <row r="144" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="29">
         <v>9</v>
       </c>
-      <c r="B144" s="98" t="s">
+      <c r="B144" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="97"/>
+      <c r="D144" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C144" s="99"/>
-      <c r="D144" s="100" t="s">
-        <v>131</v>
-      </c>
-      <c r="E144" s="97"/>
-      <c r="F144" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="G144" s="97"/>
-      <c r="H144" s="96" t="s">
+      <c r="E144" s="94"/>
+      <c r="F144" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="G144" s="94"/>
+      <c r="H144" s="93" t="s">
         <v>48</v>
       </c>
       <c r="I144" s="95"/>
-      <c r="J144" s="97"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J144" s="94"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B148" s="34"/>
       <c r="C148" s="23"/>
-      <c r="D148" s="73" t="s">
+      <c r="D148" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E148" s="74"/>
+      <c r="E148" s="92"/>
       <c r="F148" s="24"/>
       <c r="G148" s="24"/>
       <c r="H148" s="24"/>
       <c r="I148" s="24"/>
       <c r="J148" s="24"/>
     </row>
-    <row r="149" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="73" t="s">
+    <row r="149" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A149" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B149" s="74"/>
+      <c r="B149" s="92"/>
       <c r="C149" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D149" s="73" t="s">
+      <c r="D149" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="E149" s="74"/>
+      <c r="E149" s="92"/>
       <c r="F149" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G149" s="24"/>
       <c r="H149" s="24"/>
       <c r="I149" s="24"/>
       <c r="J149" s="24"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" s="73" t="s">
+    <row r="150" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B150" s="74"/>
-      <c r="C150" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D150" s="73" t="s">
+      <c r="B150" s="92"/>
+      <c r="C150" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="E150" s="74"/>
-      <c r="F150" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G150" s="78"/>
+      <c r="E150" s="92"/>
+      <c r="F150" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="G150" s="85"/>
       <c r="H150" s="25" t="s">
         <v>42</v>
       </c>
@@ -6195,7 +6198,7 @@
       </c>
       <c r="J150" s="26"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="24"/>
       <c r="B151" s="24"/>
       <c r="C151" s="24"/>
@@ -6207,11 +6210,11 @@
       <c r="I151" s="24"/>
       <c r="J151" s="24"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" s="60" t="s">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B152" s="61"/>
+      <c r="B152" s="87"/>
       <c r="C152" s="23" t="s">
         <v>59</v>
       </c>
@@ -6223,7 +6226,7 @@
       <c r="I152" s="24"/>
       <c r="J152" s="24"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="27"/>
       <c r="C153" s="27"/>
@@ -6235,22 +6238,22 @@
       <c r="I153" s="24"/>
       <c r="J153" s="24"/>
     </row>
-    <row r="154" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A154" s="62" t="s">
+    <row r="154" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A154" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B154" s="61"/>
-      <c r="C154" s="24" t="s">
+      <c r="B154" s="87"/>
+      <c r="C154" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D154" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E154" s="87"/>
+      <c r="F154" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="D154" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E154" s="61"/>
-      <c r="F154" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G154" s="64"/>
+      <c r="G154" s="90"/>
       <c r="H154" s="25" t="s">
         <v>47</v>
       </c>
@@ -6258,7 +6261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="27"/>
       <c r="C155" s="20"/>
@@ -6267,41 +6270,41 @@
       <c r="I155" s="24"/>
       <c r="J155" s="24"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B156" s="65" t="s">
+      <c r="B156" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C156" s="65"/>
-      <c r="D156" s="65"/>
-      <c r="E156" s="65"/>
-      <c r="F156" s="65"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C156" s="83"/>
+      <c r="D156" s="83"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="83"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="29">
         <v>1</v>
       </c>
-      <c r="B157" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="58"/>
-      <c r="F157" s="58"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B157" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" s="63"/>
+      <c r="D157" s="63"/>
+      <c r="E157" s="63"/>
+      <c r="F157" s="63"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="29">
         <v>2</v>
       </c>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="58"/>
-      <c r="F158" s="58"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B158" s="63"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="63"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="24"/>
       <c r="B159" s="24"/>
       <c r="C159" s="24"/>
@@ -6313,34 +6316,34 @@
       <c r="I159" s="24"/>
       <c r="J159" s="24"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B160" s="77" t="s">
+      <c r="B160" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C160" s="77"/>
-      <c r="D160" s="77" t="s">
+      <c r="C160" s="84"/>
+      <c r="D160" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="E160" s="77"/>
-      <c r="F160" s="77"/>
+      <c r="E160" s="84"/>
+      <c r="F160" s="84"/>
       <c r="G160" s="24"/>
       <c r="H160" s="24"/>
       <c r="I160" s="24"/>
       <c r="J160" s="24"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="29">
         <v>1</v>
       </c>
-      <c r="B161" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C161" s="58"/>
+      <c r="B161" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" s="63"/>
       <c r="D161" s="79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E161" s="79"/>
       <c r="F161" s="79"/>
@@ -6349,59 +6352,59 @@
       <c r="I161" s="24"/>
       <c r="J161" s="24"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="29">
         <v>2</v>
       </c>
-      <c r="B162" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C162" s="84"/>
-      <c r="D162" s="90" t="s">
+      <c r="B162" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E162" s="91"/>
-      <c r="F162" s="92"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E162" s="81"/>
+      <c r="F162" s="82"/>
       <c r="G162" s="24"/>
       <c r="H162" s="24"/>
       <c r="I162" s="24"/>
       <c r="J162" s="24"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="29">
         <v>3</v>
       </c>
-      <c r="B163" s="83" t="s">
+      <c r="B163" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C163" s="67"/>
+      <c r="D163" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C163" s="84"/>
-      <c r="D163" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="E163" s="93"/>
-      <c r="F163" s="84"/>
+      <c r="E163" s="68"/>
+      <c r="F163" s="67"/>
       <c r="G163" s="24"/>
       <c r="H163" s="24"/>
       <c r="I163" s="24"/>
       <c r="J163" s="24"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="31"/>
-      <c r="B164" s="59"/>
-      <c r="C164" s="59"/>
-      <c r="D164" s="59"/>
-      <c r="E164" s="59"/>
-      <c r="F164" s="59"/>
+      <c r="B164" s="71"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="71"/>
+      <c r="E164" s="71"/>
+      <c r="F164" s="71"/>
       <c r="G164" s="23"/>
       <c r="H164" s="23"/>
       <c r="I164" s="23"/>
       <c r="J164" s="23"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" s="66" t="s">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B165" s="66"/>
+      <c r="B165" s="72"/>
       <c r="C165" s="23" t="s">
         <v>52</v>
       </c>
@@ -6413,446 +6416,155 @@
       <c r="I165" s="24"/>
       <c r="J165" s="24"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C166" s="31"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" s="57" t="s">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B167" s="57" t="s">
+      <c r="B167" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C167" s="67"/>
-      <c r="D167" s="69" t="s">
+      <c r="C167" s="73"/>
+      <c r="D167" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E167" s="70"/>
-      <c r="F167" s="72" t="s">
+      <c r="E167" s="76"/>
+      <c r="F167" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="G167" s="72"/>
-      <c r="H167" s="57" t="s">
+      <c r="G167" s="78"/>
+      <c r="H167" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="I167" s="57"/>
-      <c r="J167" s="57"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="67"/>
-      <c r="B168" s="68"/>
-      <c r="C168" s="68"/>
-      <c r="D168" s="71"/>
-      <c r="E168" s="71"/>
-      <c r="F168" s="72"/>
-      <c r="G168" s="72"/>
-      <c r="H168" s="57"/>
-      <c r="I168" s="57"/>
-      <c r="J168" s="57"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I167" s="70"/>
+      <c r="J167" s="70"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="73"/>
+      <c r="B168" s="74"/>
+      <c r="C168" s="74"/>
+      <c r="D168" s="77"/>
+      <c r="E168" s="77"/>
+      <c r="F168" s="78"/>
+      <c r="G168" s="78"/>
+      <c r="H168" s="70"/>
+      <c r="I168" s="70"/>
+      <c r="J168" s="70"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="29">
         <v>1</v>
       </c>
-      <c r="B169" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C169" s="76"/>
-      <c r="D169" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58" t="s">
+      <c r="B169" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C169" s="69"/>
+      <c r="D169" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E169" s="63"/>
+      <c r="F169" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="G169" s="63"/>
+      <c r="H169" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I169" s="58"/>
-      <c r="J169" s="58"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I169" s="63"/>
+      <c r="J169" s="63"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="29">
         <v>2</v>
       </c>
-      <c r="B170" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="C170" s="89"/>
-      <c r="D170" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="E170" s="84"/>
-      <c r="F170" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="G170" s="84"/>
-      <c r="H170" s="83" t="s">
+      <c r="B170" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="65"/>
+      <c r="D170" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E170" s="67"/>
+      <c r="F170" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="G170" s="67"/>
+      <c r="H170" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="I170" s="93"/>
-      <c r="J170" s="84"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I170" s="68"/>
+      <c r="J170" s="67"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="29">
         <v>3</v>
       </c>
-      <c r="B171" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C171" s="76"/>
-      <c r="D171" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G171" s="58"/>
-      <c r="H171" s="58" t="s">
+      <c r="B171" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C171" s="69"/>
+      <c r="D171" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="E171" s="63"/>
+      <c r="F171" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G171" s="63"/>
+      <c r="H171" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I171" s="58"/>
-      <c r="J171" s="58"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I171" s="63"/>
+      <c r="J171" s="63"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="29">
         <v>4</v>
       </c>
-      <c r="B172" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="C172" s="101"/>
-      <c r="D172" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E172" s="58"/>
-      <c r="F172" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G172" s="58"/>
-      <c r="H172" s="58" t="s">
+      <c r="B172" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C172" s="62"/>
+      <c r="D172" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E172" s="63"/>
+      <c r="F172" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G172" s="63"/>
+      <c r="H172" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I172" s="58"/>
-      <c r="J172" s="58"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I172" s="63"/>
+      <c r="J172" s="63"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="29">
         <v>5</v>
       </c>
-      <c r="B173" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="C173" s="89"/>
-      <c r="D173" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="E173" s="58"/>
-      <c r="F173" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G173" s="58"/>
-      <c r="H173" s="58" t="s">
+      <c r="B173" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" s="65"/>
+      <c r="D173" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E173" s="63"/>
+      <c r="F173" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G173" s="63"/>
+      <c r="H173" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="I173" s="58"/>
-      <c r="J173" s="58"/>
+      <c r="I173" s="63"/>
+      <c r="J173" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="317">
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="H172:J172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="H170:J170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="H171:J171"/>
-    <mergeCell ref="H167:J168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="H169:J169"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="B167:C168"/>
-    <mergeCell ref="D167:E168"/>
-    <mergeCell ref="F167:G168"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:J141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:J139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="H134:J135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:C135"/>
-    <mergeCell ref="D134:E135"/>
-    <mergeCell ref="F134:G135"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="H106:J107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:C107"/>
-    <mergeCell ref="D106:E107"/>
-    <mergeCell ref="F106:G107"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H78:J79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:C79"/>
-    <mergeCell ref="D78:E79"/>
-    <mergeCell ref="F78:G79"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="H48:J49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
@@ -6875,10 +6587,301 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:J49"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="H78:J79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:C79"/>
+    <mergeCell ref="D78:E79"/>
+    <mergeCell ref="F78:G79"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="H106:J107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:C107"/>
+    <mergeCell ref="D106:E107"/>
+    <mergeCell ref="F106:G107"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="H134:J135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:C135"/>
+    <mergeCell ref="D134:E135"/>
+    <mergeCell ref="F134:G135"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:J139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="H167:J168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="H169:J169"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:C168"/>
+    <mergeCell ref="D167:E168"/>
+    <mergeCell ref="F167:G168"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="H172:J172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="H170:J170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="H171:J171"/>
   </mergeCells>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6886,21 +6889,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D27483CF1B63FA4AA03D15E9EA85AD57" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc40f05d5172330021a6e9de5317fd1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c078926d-f3db-4b74-bbd0-f33b483d4b1e" xmlns:ns4="806a97cf-37b5-43d8-9f6a-27e74bb9243f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e98100bc02576a7c959853f71e43f81a" ns3:_="" ns4:_="">
     <xsd:import namespace="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
@@ -7117,32 +7105,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="806a97cf-37b5-43d8-9f6a-27e74bb9243f"/>
-    <ds:schemaRef ds:uri="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E2B2261-6191-43A6-8C41-B739157DC3A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7159,4 +7137,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="806a97cf-37b5-43d8-9f6a-27e74bb9243f"/>
+    <ds:schemaRef ds:uri="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>